--- a/experiments/2022_car_sampling_pnec/results/statistics/stats_auc_log_type.xlsx
+++ b/experiments/2022_car_sampling_pnec/results/statistics/stats_auc_log_type.xlsx
@@ -71,7 +71,7 @@
     <t>Naive</t>
   </si>
   <si>
-    <t>Selfreport with App</t>
+    <t>Selfreport w/ App</t>
   </si>
   <si>
     <t>App</t>
